--- a/data/example_data_two_sheets.xlsx
+++ b/data/example_data_two_sheets.xlsx
@@ -449,7 +449,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45566.43022647116</v>
+        <v>45575.59670979221</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45566.43023804523</v>
+        <v>45575.59672136629</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45566.4302496193</v>
+        <v>45575.59673294036</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45566.43026119338</v>
+        <v>45575.59674451443</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45566.43027276745</v>
+        <v>45575.5967560885</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45566.43028434153</v>
+        <v>45575.59676766258</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45566.4302959156</v>
+        <v>45575.59677923666</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45566.43030748967</v>
+        <v>45575.59679081073</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
